--- a/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Laboratorio_Parcial_03_NRC_164.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Laboratorio_Parcial_03_NRC_164.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F8F04A-9E5E-4230-B7AD-70F5F3AE8432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C89A59C-3A99-4F47-B1F8-DE25C6D306F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="1185" windowWidth="17415" windowHeight="9705" activeTab="1" xr2:uid="{7E253B6F-28C1-4E99-9AA5-E9F511C4A31D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7E253B6F-28C1-4E99-9AA5-E9F511C4A31D}"/>
   </bookViews>
   <sheets>
     <sheet name="Faltas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
   <si>
     <t>Alumno</t>
   </si>
@@ -190,6 +190,42 @@
   </si>
   <si>
     <t>P4_Reporte</t>
+  </si>
+  <si>
+    <t>P5_Marco_Teórico</t>
+  </si>
+  <si>
+    <t>P5_Montaje</t>
+  </si>
+  <si>
+    <t>P5_Reporte</t>
+  </si>
+  <si>
+    <t>P6_Encuadre</t>
+  </si>
+  <si>
+    <t>P6_Montaje</t>
+  </si>
+  <si>
+    <t>P6_Reporte</t>
+  </si>
+  <si>
+    <t>Puntaje</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>P6_Marco_Teórico</t>
+  </si>
+  <si>
+    <t>P7_Encuadre</t>
+  </si>
+  <si>
+    <t>P7_Montaje</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -567,19 +603,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33123BC1-5692-4E0F-8EA2-7DD9EFA04ACA}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="11.42578125" style="2"/>
+    <col min="5" max="9" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,8 +645,20 @@
       <c r="I1" s="1">
         <v>45322</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1">
+        <v>45329</v>
+      </c>
+      <c r="K1" s="1">
+        <v>45336</v>
+      </c>
+      <c r="L1" s="1">
+        <v>45343</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -624,8 +674,12 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M2" s="2">
+        <f>SUM(E2:L2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -638,8 +692,15 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M13" si="0">SUM(E3:L3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -652,8 +713,12 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -666,8 +731,15 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -680,8 +752,12 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -697,8 +773,18 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -714,8 +800,18 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -728,8 +824,12 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -742,8 +842,12 @@
       <c r="D10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -756,8 +860,15 @@
       <c r="D11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -773,8 +884,15 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -789,6 +907,19 @@
       </c>
       <c r="E13" s="2">
         <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -798,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889FD7DF-D324-490F-9C4C-4D17FE97F8DE}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,9 +940,20 @@
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -830,8 +972,41 @@
       <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -844,11 +1019,42 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2">
+        <f t="shared" ref="P2:P13" si="0">SUM(E2:N2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -861,11 +1067,42 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
       <c r="F3" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -878,11 +1115,42 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
       <c r="F4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -895,11 +1163,42 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
+      <c r="E5" s="2">
+        <v>4.5</v>
+      </c>
       <c r="F5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -912,11 +1211,42 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -929,11 +1259,42 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -946,11 +1307,42 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -963,11 +1355,42 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -980,11 +1403,42 @@
       <c r="D10" t="s">
         <v>37</v>
       </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
       <c r="F10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>5</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -997,11 +1451,42 @@
       <c r="D11" t="s">
         <v>40</v>
       </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
       <c r="F11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1014,11 +1499,42 @@
       <c r="D12" t="s">
         <v>44</v>
       </c>
+      <c r="E12" s="2">
+        <v>2.5</v>
+      </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1031,8 +1547,39 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
       <c r="F13" s="2">
         <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Laboratorio_Parcial_03_NRC_164.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Laboratorio_Parcial_03_NRC_164.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C89A59C-3A99-4F47-B1F8-DE25C6D306F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CBB689-41D8-44FA-869F-8A423CE01849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7E253B6F-28C1-4E99-9AA5-E9F511C4A31D}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Faltas" sheetId="1" r:id="rId1"/>
     <sheet name="Concentrado" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Concentrado!$A$2:$U$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
   <si>
     <t>Alumno</t>
   </si>
@@ -226,13 +229,28 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>P7_Marco</t>
+  </si>
+  <si>
+    <t>BAJA</t>
+  </si>
+  <si>
+    <t>P7_Reporte</t>
+  </si>
+  <si>
+    <t>P8_Encuadre</t>
+  </si>
+  <si>
+    <t>Faltas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,13 +258,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -261,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,11 +301,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -603,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33123BC1-5692-4E0F-8EA2-7DD9EFA04ACA}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,9 +678,10 @@
     <col min="5" max="9" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,8 +721,11 @@
       <c r="M1" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -674,12 +741,21 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
       <c r="M2" s="2">
         <f>SUM(E2:L2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -695,12 +771,15 @@
       <c r="I3" s="2">
         <v>1</v>
       </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M13" si="0">SUM(E3:L3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -718,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -739,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -757,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -784,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -810,8 +889,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -829,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -846,8 +928,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -863,12 +948,21 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
       <c r="M11" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -892,7 +986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -917,9 +1011,18 @@
       <c r="I13" s="2">
         <v>1</v>
       </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
       <c r="M13" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -929,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889FD7DF-D324-490F-9C4C-4D17FE97F8DE}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,322 +1051,400 @@
     <col min="12" max="12" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E1" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2">
+        <v>5</v>
+      </c>
+      <c r="R1" s="2">
+        <v>5</v>
+      </c>
+      <c r="S1" s="2">
+        <f>SUM(E1:R1)</f>
+        <v>65</v>
+      </c>
+      <c r="T1" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="U2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2">
-        <f t="shared" ref="P2:P13" si="0">SUM(E2:N2)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <f>SUM(E3:R3)</f>
+        <v>25</v>
+      </c>
+      <c r="T3" s="4">
+        <f>(S3/$S$1)*10</f>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="U3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
         <v>2.5</v>
       </c>
-      <c r="L3" s="2">
-        <v>5</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="L4" s="2">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4:S13" si="0">SUM(E4:R4)</f>
+        <v>27.5</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" ref="T4:T13" si="1">(S4/$S$1)*10</f>
+        <v>4.2307692307692308</v>
+      </c>
+      <c r="U4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>5</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>5</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2">
+        <v>5</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4615384615384617</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>4.5</v>
       </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2">
-        <v>5</v>
-      </c>
-      <c r="M5" s="2">
-        <v>5</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5</v>
+      </c>
+      <c r="R6" s="2">
+        <v>5</v>
+      </c>
+      <c r="S6" s="2">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>59.5</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="1"/>
+        <v>9.1538461538461533</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>5</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>5</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
@@ -1272,317 +1453,504 @@
         <v>5</v>
       </c>
       <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2">
+        <v>5</v>
+      </c>
+      <c r="R7" s="2">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="1"/>
+        <v>8.3076923076923084</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
         <v>3</v>
       </c>
-      <c r="J7" s="2">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
         <v>4</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>4</v>
+      </c>
+      <c r="P8" s="2">
+        <v>5</v>
+      </c>
+      <c r="R8" s="2">
+        <v>5</v>
+      </c>
+      <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="1"/>
+        <v>6.1538461538461542</v>
+      </c>
+      <c r="U8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>5</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>5</v>
+      </c>
+      <c r="R9" s="2">
+        <v>5</v>
+      </c>
+      <c r="S9" s="2">
         <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="U9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2">
-        <v>5</v>
-      </c>
-      <c r="M9" s="2">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2">
-        <v>5</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>5</v>
+      </c>
+      <c r="R11" s="2">
+        <v>5</v>
+      </c>
+      <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>5</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>5</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="T11" s="4">
+        <f t="shared" si="1"/>
+        <v>5.3846153846153841</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>5</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>5</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>5</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="T12" s="4">
+        <f t="shared" si="1"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="U12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5</v>
+      </c>
+      <c r="P13" s="2">
+        <v>5</v>
+      </c>
+      <c r="R13" s="2">
+        <v>5</v>
+      </c>
+      <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>5</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>37.5</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="1"/>
+        <v>5.7692307692307683</v>
+      </c>
+      <c r="U13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>5</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <f>SUM(E14:O14)</f>
+        <v>5</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U14" s="6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E3:P13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Laboratorio_Parcial_03_NRC_164.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Laboratorio_Parcial_03_NRC_164.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CBB689-41D8-44FA-869F-8A423CE01849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300A01FC-1730-4B63-B55B-1A8FA082E9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7E253B6F-28C1-4E99-9AA5-E9F511C4A31D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7E253B6F-28C1-4E99-9AA5-E9F511C4A31D}"/>
   </bookViews>
   <sheets>
     <sheet name="Faltas" sheetId="1" r:id="rId1"/>
     <sheet name="Concentrado" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Concentrado!$A$2:$U$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Concentrado!$A$2:$U$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>Alumno</t>
   </si>
@@ -267,18 +267,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -293,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,10 +299,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33123BC1-5692-4E0F-8EA2-7DD9EFA04ACA}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
@@ -1032,10 +1022,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889FD7DF-D324-490F-9C4C-4D17FE97F8DE}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="7380" ySplit="1155" topLeftCell="T3" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,70 +1868,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>5</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <f>SUM(E14:O14)</f>
-        <v>5</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="U14" s="6">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="E3:P13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
